--- a/Team2Report.xlsx
+++ b/Team2Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Library/Mobile Documents/com~apple~CloudDocs/Documents/SSW555/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E4CF4E-CF2B-0D40-ABC2-57551FE85BBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA87816-F1CB-784B-999D-005734CFB9AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="580" windowWidth="28560" windowHeight="17300" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30660" yWindow="6460" windowWidth="28560" windowHeight="17300" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -3208,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3337,6 +3337,12 @@
       <c r="D5" s="19" t="s">
         <v>158</v>
       </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -3350,6 +3356,12 @@
       </c>
       <c r="D6" s="19" t="s">
         <v>158</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
